--- a/Data/Fjord Control Online Cloud/Fjord Control Online Cloud 1.xlsx
+++ b/Data/Fjord Control Online Cloud/Fjord Control Online Cloud 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trond\Documents\GitHub\NexusConfigTool\Data\Fjord Control Online Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1738311C-CB4F-4BFA-8090-4F9F8878ECE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE198A89-1C5E-4F45-B4EB-90017950AFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="975" windowWidth="22815" windowHeight="15315" xr2:uid="{2AFDB3F9-7096-4B8B-A6E1-68004C62B53C}"/>
   </bookViews>
@@ -434,6 +434,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -446,19 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -863,7 +863,7 @@
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,14 +872,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="11"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -890,80 +890,80 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="13">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8">
         <v>2000</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="J7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1330,17 +1330,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J4 J206:J1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
